--- a/AI Assistant/4. test results/response time/ambiguous test results.xlsx
+++ b/AI Assistant/4. test results/response time/ambiguous test results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\finalyearproject\eOverlay\test results\response time\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\finalyearproject\AI Assistant\4. test results\response time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9A52E3D-8239-44D3-892E-AC2EBCBBDA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAA28D3-2BD3-4288-9A43-649579B5E0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31275" yWindow="405" windowWidth="21600" windowHeight="11505" xr2:uid="{A177289A-154F-4788-A1BA-DC080BD52CD6}"/>
+    <workbookView xWindow="28860" yWindow="210" windowWidth="21600" windowHeight="11520" xr2:uid="{A177289A-154F-4788-A1BA-DC080BD52CD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
